--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026BE6B7-04C8-4E4D-BBC7-C1102F99F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11451E9D-23C5-489B-87A0-2E1F86CF9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,6 +445,21 @@
           </rPr>
           <t xml:space="preserve">House Advance =16000/ 
 Sept-24
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{AC5612C5-0332-40CA-8ED3-6C32E7BEEA55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">bike survicing =11500/
 </t>
         </r>
       </text>
@@ -13379,8 +13394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D1DDA-5517-4290-9B85-5959FAB0B612}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14173,7 +14188,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="13">
-        <f>SUM(D18,F17:U17)</f>
+        <f t="shared" ref="X17:X25" si="3">SUM(D18,F17:U17)</f>
         <v>720</v>
       </c>
       <c r="Y17" s="14">
@@ -14223,7 +14238,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="13">
-        <f>SUM(D19,F18:U18)</f>
+        <f t="shared" si="3"/>
         <v>16860</v>
       </c>
       <c r="Y18" s="14">
@@ -14269,7 +14284,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="13">
-        <f>SUM(D20,F19:U19)</f>
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="Y19" s="14">
@@ -14317,7 +14332,7 @@
         <v>576</v>
       </c>
       <c r="X20" s="13">
-        <f>SUM(D21,F20:U20)</f>
+        <f t="shared" si="3"/>
         <v>1609</v>
       </c>
       <c r="Y20" s="14">
@@ -14361,7 +14376,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="13">
-        <f>SUM(D22,F21:U21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y21" s="14">
@@ -14403,7 +14418,7 @@
       <c r="V22" s="11"/>
       <c r="W22" s="12"/>
       <c r="X22" s="13">
-        <f>SUM(D23,F22:U22)</f>
+        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="Y22" s="14">
@@ -14449,7 +14464,7 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="13">
-        <f>SUM(D24,F23:U23)</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="Y23" s="14">
@@ -14497,7 +14512,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="13">
-        <f>SUM(D25,F24:U24)</f>
+        <f t="shared" si="3"/>
         <v>4630</v>
       </c>
       <c r="Y24" s="14">
@@ -14543,7 +14558,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="13">
-        <f>SUM(D26,F25:U25)</f>
+        <f t="shared" si="3"/>
         <v>9720</v>
       </c>
       <c r="Y25" s="14">
@@ -14610,7 +14625,9 @@
         <v>45560</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>620</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -14632,7 +14649,7 @@
       <c r="W27" s="22"/>
       <c r="X27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Y27" s="14">
         <f t="shared" si="1"/>
@@ -14640,7 +14657,7 @@
       </c>
       <c r="Z27" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="AA27" s="11"/>
     </row>
@@ -14652,7 +14669,9 @@
         <v>45561</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11">
+        <v>520</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -14666,23 +14685,27 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
+      <c r="R28" s="11">
+        <v>420</v>
+      </c>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="W28" s="11">
+        <v>2006</v>
+      </c>
       <c r="X28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="Y28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="Z28" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2946</v>
       </c>
       <c r="AA28" s="11"/>
     </row>
@@ -14736,7 +14759,9 @@
         <v>45563</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11">
+        <v>620</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -14758,7 +14783,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Y30" s="14">
         <f t="shared" si="1"/>
@@ -14766,7 +14791,7 @@
       </c>
       <c r="Z30" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="AA30" s="11"/>
     </row>
@@ -14778,7 +14803,9 @@
         <v>45564</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11">
+        <v>520</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -14800,7 +14827,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Y31" s="14">
         <f t="shared" si="1"/>
@@ -14808,7 +14835,7 @@
       </c>
       <c r="Z31" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AA31" s="11"/>
     </row>
@@ -14820,7 +14847,9 @@
         <v>45565</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11">
+        <v>620</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -14839,18 +14868,20 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="22"/>
+      <c r="W32" s="22">
+        <v>6690</v>
+      </c>
       <c r="X32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Y32" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6690</v>
       </c>
       <c r="Z32" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7310</v>
       </c>
       <c r="AA32" s="11"/>
     </row>
@@ -14902,95 +14933,95 @@
       <c r="C34" s="39"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
-        <v>11200</v>
+        <v>14100</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <f t="shared" ref="E34:V34" si="4">SUM(E3:E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2760</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2800</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>560</v>
       </c>
       <c r="Q34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
       <c r="R34" s="24">
-        <f t="shared" si="3"/>
-        <v>13710</v>
+        <f t="shared" si="4"/>
+        <v>14130</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21629</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W34" s="24">
         <f>SUM(W3:W33)</f>
-        <v>13001</v>
+        <v>21697</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>62969</v>
+        <f t="shared" ref="X34:Z34" si="5">SUM(X3:X33)</f>
+        <v>66289</v>
       </c>
       <c r="Y34" s="24">
-        <f t="shared" si="4"/>
-        <v>13001</v>
+        <f t="shared" si="5"/>
+        <v>21697</v>
       </c>
       <c r="Z34" s="24">
-        <f t="shared" si="4"/>
-        <v>75970</v>
+        <f t="shared" si="5"/>
+        <v>87986</v>
       </c>
       <c r="AA34" s="11"/>
     </row>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11451E9D-23C5-489B-87A0-2E1F86CF9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF939E-C050-42F6-B7FC-13BE94F4591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">salary june-24 =31000/
 </t>
@@ -346,7 +346,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">GA Commission june-24 =21519/
 </t>
@@ -361,7 +361,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">GA Adjust june-24 =25000/
 house cost =7000/
@@ -387,7 +387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Salary July-24 =37000/
 </t>
@@ -416,7 +416,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">vat submit
 </t>
@@ -441,7 +441,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">House Advance =16000/ 
 Sept-24
@@ -457,7 +457,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">bike survicing =11500/
 </t>
@@ -616,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,13 +675,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -13394,8 +13387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D1DDA-5517-4290-9B85-5959FAB0B612}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13566,21 +13559,19 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="15">
-        <v>4339</v>
-      </c>
+      <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="12">
-        <v>3240</v>
+        <v>7579</v>
       </c>
       <c r="X3" s="13">
         <f>SUM(D3,F3:U3)</f>
-        <v>4859</v>
+        <v>520</v>
       </c>
       <c r="Y3" s="14">
         <f>SUM(V3:W3)</f>
-        <v>3240</v>
+        <v>7579</v>
       </c>
       <c r="Z3" s="11">
         <f>SUM(X3:Y3)</f>
@@ -14188,8 +14179,8 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="13">
-        <f t="shared" ref="X17:X25" si="3">SUM(D18,F17:U17)</f>
-        <v>720</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="1"/>
@@ -14197,7 +14188,7 @@
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="2"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="11"/>
     </row>
@@ -14231,23 +14222,23 @@
         <v>360</v>
       </c>
       <c r="S18" s="11"/>
-      <c r="T18" s="11">
-        <v>15420</v>
-      </c>
+      <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="W18" s="11">
+        <v>15420</v>
+      </c>
       <c r="X18" s="13">
-        <f t="shared" si="3"/>
-        <v>16860</v>
+        <f t="shared" si="0"/>
+        <v>1640</v>
       </c>
       <c r="Y18" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15420</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="2"/>
-        <v>16860</v>
+        <v>17060</v>
       </c>
       <c r="AA18" s="11"/>
     </row>
@@ -14284,8 +14275,8 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="13">
-        <f t="shared" si="3"/>
-        <v>680</v>
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
       <c r="Y19" s="14">
         <f t="shared" si="1"/>
@@ -14293,7 +14284,7 @@
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="2"/>
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="AA19" s="11"/>
     </row>
@@ -14323,25 +14314,23 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="11">
-        <v>1089</v>
-      </c>
+      <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11">
-        <v>576</v>
+        <v>1665</v>
       </c>
       <c r="X20" s="13">
-        <f t="shared" si="3"/>
-        <v>1609</v>
+        <f t="shared" si="0"/>
+        <v>620</v>
       </c>
       <c r="Y20" s="14">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>1665</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="2"/>
-        <v>2185</v>
+        <v>2285</v>
       </c>
       <c r="AA20" s="11"/>
     </row>
@@ -14376,8 +14365,8 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>520</v>
       </c>
       <c r="Y21" s="14">
         <f t="shared" si="1"/>
@@ -14385,7 +14374,7 @@
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AA21" s="11"/>
     </row>
@@ -14418,8 +14407,8 @@
       <c r="V22" s="11"/>
       <c r="W22" s="12"/>
       <c r="X22" s="13">
-        <f t="shared" si="3"/>
-        <v>620</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y22" s="14">
         <f t="shared" si="1"/>
@@ -14427,7 +14416,7 @@
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="11"/>
     </row>
@@ -14464,8 +14453,8 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="13">
-        <f t="shared" si="3"/>
-        <v>580</v>
+        <f t="shared" si="0"/>
+        <v>680</v>
       </c>
       <c r="Y23" s="14">
         <f t="shared" si="1"/>
@@ -14473,7 +14462,7 @@
       </c>
       <c r="Z23" s="11">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="AA23" s="11"/>
     </row>
@@ -14512,8 +14501,8 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="13">
-        <f t="shared" si="3"/>
-        <v>4630</v>
+        <f t="shared" si="0"/>
+        <v>4530</v>
       </c>
       <c r="Y24" s="14">
         <f t="shared" si="1"/>
@@ -14521,7 +14510,7 @@
       </c>
       <c r="Z24" s="11">
         <f t="shared" si="2"/>
-        <v>4630</v>
+        <v>4530</v>
       </c>
       <c r="AA24" s="11"/>
     </row>
@@ -14558,8 +14547,8 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="13">
-        <f t="shared" si="3"/>
-        <v>9720</v>
+        <f t="shared" si="0"/>
+        <v>9820</v>
       </c>
       <c r="Y25" s="14">
         <f t="shared" si="1"/>
@@ -14567,7 +14556,7 @@
       </c>
       <c r="Z25" s="11">
         <f t="shared" si="2"/>
-        <v>9720</v>
+        <v>9820</v>
       </c>
       <c r="AA25" s="11"/>
     </row>
@@ -14903,7 +14892,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -14913,7 +14902,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="13">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="1"/>
@@ -14921,7 +14910,7 @@
       </c>
       <c r="Z33" s="11">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="AA33" s="11"/>
     </row>
@@ -14936,92 +14925,92 @@
         <v>14100</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" ref="E34:V34" si="4">SUM(E3:E33)</f>
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>560</v>
       </c>
       <c r="Q34" s="24">
-        <f t="shared" si="4"/>
-        <v>8000</v>
+        <f t="shared" si="3"/>
+        <v>7000</v>
       </c>
       <c r="R34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14130</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="4"/>
-        <v>21629</v>
+        <f t="shared" si="3"/>
+        <v>781</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W34" s="24">
         <f>SUM(W3:W33)</f>
-        <v>21697</v>
+        <v>42545</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" ref="X34:Z34" si="5">SUM(X3:X33)</f>
-        <v>66289</v>
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>43921</v>
       </c>
       <c r="Y34" s="24">
-        <f t="shared" si="5"/>
-        <v>21697</v>
+        <f t="shared" si="4"/>
+        <v>42545</v>
       </c>
       <c r="Z34" s="24">
-        <f t="shared" si="5"/>
-        <v>87986</v>
+        <f t="shared" si="4"/>
+        <v>86466</v>
       </c>
       <c r="AA34" s="11"/>
     </row>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF939E-C050-42F6-B7FC-13BE94F4591E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F994416-A1F5-4A3B-B378-95E3A20B75E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -13387,8 +13387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D1DDA-5517-4290-9B85-5959FAB0B612}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F994416-A1F5-4A3B-B378-95E3A20B75E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2518590-4F43-4E3C-B790-EFBD71BC4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="July-24 (6)" sheetId="7" r:id="rId6"/>
     <sheet name="August-24 (7)" sheetId="8" r:id="rId7"/>
     <sheet name="Sept-24 (8)" sheetId="9" r:id="rId8"/>
+    <sheet name="Oct-24 (9)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,8 +469,48 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{4F07918E-7160-4A40-9D69-FA9BE860522B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">salary sept-24 =41000/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{9DCF96CF-39B5-438B-AC3F-B2F5BB0E3DCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">puja bonus Oct-24=9000/
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="48">
   <si>
     <t>SL</t>
   </si>
@@ -611,12 +652,15 @@
   <si>
     <t>E -LIFE COMMUNICATION August-2024</t>
   </si>
+  <si>
+    <t>E -LIFE COMMUNICATION Sept-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +719,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -826,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,6 +974,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,35 +1311,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2744,11 +2801,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -2844,10 +2901,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,35 +3026,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4475,11 +4532,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -4575,10 +4632,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4702,35 +4759,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6218,11 +6275,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -6318,10 +6375,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6446,35 +6503,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7972,11 +8029,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -8072,10 +8129,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8200,35 +8257,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9709,11 +9766,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -9809,10 +9866,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9906,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101E3A59-D749-47E4-8996-9A50E63F8009}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -9938,35 +9995,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11454,11 +11511,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -11554,10 +11611,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11651,8 +11708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425EC6F2-6B6F-415C-9782-7A78D5C36F51}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="J21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView topLeftCell="J1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11683,35 +11740,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13190,11 +13247,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -13290,10 +13347,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13387,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D1DDA-5517-4290-9B85-5959FAB0B612}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13420,35 +13477,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14888,11 +14945,13 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="N33" s="11">
+        <v>41000</v>
+      </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -14902,7 +14961,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="13">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>49000</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="1"/>
@@ -14910,16 +14969,16 @@
       </c>
       <c r="Z33" s="11">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>49000</v>
       </c>
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -14962,7 +15021,7 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
@@ -14974,7 +15033,7 @@
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="R34" s="24">
         <f t="shared" si="3"/>
@@ -15002,7 +15061,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>43921</v>
+        <v>85921</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -15010,15 +15069,15 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>86466</v>
+        <v>128466</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15026,6 +15085,1763 @@
         <v>3</v>
       </c>
       <c r="E35" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F6B29C-3436-4E29-A023-4C35A35C03AA}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45566</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11">
+        <v>520</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>520</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>520</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45567</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11">
+        <v>620</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>620</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>620</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45568</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="19">
+        <v>520</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45569</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45570</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>620</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>750</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>460</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <v>952</v>
+      </c>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>952</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>2782</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45571</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>520</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17">
+        <v>90</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17">
+        <v>160</v>
+      </c>
+      <c r="S8" s="17">
+        <v>110</v>
+      </c>
+      <c r="T8" s="17">
+        <v>92</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>972</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45572</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>620</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45573</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>520</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
+        <v>2800</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
+        <v>130</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>3450</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>3450</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45574</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>620</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <v>4388</v>
+      </c>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>4388</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>5008</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45575</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11">
+        <v>520</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>700</v>
+      </c>
+      <c r="L12" s="11">
+        <v>80</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
+        <v>9000</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11">
+        <v>8000</v>
+      </c>
+      <c r="R12" s="11">
+        <v>450</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>18750</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45576</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45577</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>620</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11">
+        <v>400</v>
+      </c>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45578</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45579</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11">
+        <v>620</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>90</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11">
+        <v>400</v>
+      </c>
+      <c r="T16" s="19">
+        <v>950</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>2060</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45580</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="37">
+        <v>520</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11">
+        <v>400</v>
+      </c>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45581</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="11">
+        <v>620</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11">
+        <v>900</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>1520</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45582</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>520</v>
+      </c>
+      <c r="E19" s="11">
+        <v>26400</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11">
+        <v>600</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45583</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45584</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>620</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>60</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
+        <v>150</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11">
+        <v>420</v>
+      </c>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45585</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>520</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45586</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <v>620</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11">
+        <v>150</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45587</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>520</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45588</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="11">
+        <v>620</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>1180</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45589</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="11">
+        <v>520</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11">
+        <v>200</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45590</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45591</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>620</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11">
+        <v>150</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45592</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="11">
+        <v>520</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21">
+        <v>5500</v>
+      </c>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21">
+        <v>200</v>
+      </c>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21">
+        <v>8850</v>
+      </c>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>6220</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>8850</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>15070</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45593</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="11">
+        <v>620</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
+        <v>250</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11">
+        <v>300</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45594</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="11">
+        <v>520</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21">
+        <v>500</v>
+      </c>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45595</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="11">
+        <v>620</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21">
+        <v>120</v>
+      </c>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21">
+        <v>410</v>
+      </c>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="32">
+        <v>45596</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11">
+        <v>520</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21">
+        <v>500</v>
+      </c>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>14820</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>26400</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>2260</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>1940</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>6230</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>4472</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>14190</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>51472</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>14190</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>65662</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="3" t="s">

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2518590-4F43-4E3C-B790-EFBD71BC4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643A45D-F7BA-4A0F-BD2D-3CA92E94E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13444,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D1DDA-5517-4290-9B85-5959FAB0B612}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15171,7 +15171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F6B29C-3436-4E29-A023-4C35A35C03AA}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643A45D-F7BA-4A0F-BD2D-3CA92E94E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29C7B7-F808-4AD8-98AC-D57C0D9BF7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="August-24 (7)" sheetId="8" r:id="rId7"/>
     <sheet name="Sept-24 (8)" sheetId="9" r:id="rId8"/>
     <sheet name="Oct-24 (9)" sheetId="10" r:id="rId9"/>
+    <sheet name="Nov-24 (10)" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,6 +59,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Salary Jan-24 =85500/
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{CCAFDCF2-AC08-41BE-A047-73BF7AD0E086}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">41000
 </t>
         </r>
       </text>
@@ -510,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="50">
   <si>
     <t>SL</t>
   </si>
@@ -654,6 +680,12 @@
   </si>
   <si>
     <t>E -LIFE COMMUNICATION Sept-2024</t>
+  </si>
+  <si>
+    <t>E -LIFE COMMUNICATION Nov-2024</t>
+  </si>
+  <si>
+    <t>E -LIFE COMMUNICATION Oct-2024</t>
   </si>
 </sst>
 </file>
@@ -877,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,6 +1012,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,35 +1346,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2801,11 +2836,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -2901,10 +2936,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2990,6 +3025,1726 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4A4A7-D128-4140-B0AB-119B061295C9}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45597</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45598</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11">
+        <v>620</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>620</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>620</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45599</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11">
+        <v>520</v>
+      </c>
+      <c r="K5">
+        <v>700</v>
+      </c>
+      <c r="P5">
+        <v>1550</v>
+      </c>
+      <c r="Q5">
+        <v>8000</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>10770</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>10770</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45600</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11">
+        <v>620</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45601</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>520</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>240</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45602</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>620</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17">
+        <v>2800</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>3420</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>3420</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45603</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>520</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>2090</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>2610</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>2610</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45604</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45605</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>620</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11">
+        <v>300</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45606</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>520</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
+        <v>100</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45607</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>620</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>280</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45608</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>520</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19">
+        <v>125</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45609</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>620</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45610</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>520</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11">
+        <v>120</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45611</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45612</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
+        <v>620</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11">
+        <v>700</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45613</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>520</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20">
+        <v>1050</v>
+      </c>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>1570</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>1570</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45614</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>620</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45615</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>520</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45616</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>620</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11">
+        <v>420</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11">
+        <v>500</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>1540</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45617</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <v>520</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15">
+        <v>390</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45618</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45619</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>620</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45620</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <v>520</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45621</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
+        <v>620</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45622</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>520</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11">
+        <v>4700</v>
+      </c>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>5220</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>5220</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45623</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21">
+        <v>620</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
+        <v>90</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11">
+        <v>60</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45624</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21">
+        <v>520</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45625</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45626</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>620</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21">
+        <v>150</v>
+      </c>
+      <c r="T32" s="21">
+        <v>11013</v>
+      </c>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>11783</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>11783</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>14300</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>2370</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>945</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>18213</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>51678</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>51678</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3026,35 +4781,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4532,11 +6287,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -4632,10 +6387,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4759,35 +6514,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6275,11 +8030,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -6375,10 +8130,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6503,35 +8258,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8029,11 +9784,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -8129,10 +9884,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8257,35 +10012,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9766,11 +11521,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -9866,10 +11621,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9995,35 +11750,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11511,11 +13266,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -11611,10 +13366,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11740,35 +13495,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13247,11 +15002,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -13347,10 +15102,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13477,35 +15232,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14974,11 +16729,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -15074,10 +16829,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15171,8 +16926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F6B29C-3436-4E29-A023-4C35A35C03AA}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15204,35 +16959,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16731,11 +18486,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -16831,10 +18586,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29C7B7-F808-4AD8-98AC-D57C0D9BF7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B400D5F-19FD-4ACD-863A-6F059719E0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sept-24 (8)" sheetId="9" r:id="rId8"/>
     <sheet name="Oct-24 (9)" sheetId="10" r:id="rId9"/>
     <sheet name="Nov-24 (10)" sheetId="11" r:id="rId10"/>
+    <sheet name="Dec-24 (11)" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
     <author>Shakil Ahmad</author>
   </authors>
   <commentList>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{CCAFDCF2-AC08-41BE-A047-73BF7AD0E086}">
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{AD320D9C-DD68-446B-A175-D75D6DE1FB0B}">
       <text>
         <r>
           <rPr>
@@ -81,10 +82,32 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">41000
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{970E7835-51DA-4834-B8FC-5C1DDF164C3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>25000</t>
         </r>
       </text>
     </comment>
@@ -536,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="51">
   <si>
     <t>SL</t>
   </si>
@@ -687,12 +710,15 @@
   <si>
     <t>E -LIFE COMMUNICATION Oct-2024</t>
   </si>
+  <si>
+    <t>MANGROVE COMMUNICATION Dec-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +784,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="9">
@@ -909,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,6 +1044,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,35 +1381,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2836,11 +2871,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -2936,10 +2971,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3032,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4A4A7-D128-4140-B0AB-119B061295C9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,35 +3100,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4530,6 +4565,1709 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
+      <c r="N33" s="11">
+        <v>25000</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>14300</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>2370</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>945</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>18213</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>76678</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>76678</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554BFE2-02B8-4613-910D-10F783704AC9}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45627</v>
+      </c>
+      <c r="C3" s="8">
+        <v>520</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45628</v>
+      </c>
+      <c r="C4" s="30">
+        <v>620</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
+        <v>375</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>375</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>375</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45629</v>
+      </c>
+      <c r="C5" s="30">
+        <v>520</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45630</v>
+      </c>
+      <c r="C6" s="30">
+        <v>620</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>60</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <v>4340</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45631</v>
+      </c>
+      <c r="C7" s="30">
+        <v>520</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>380</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45632</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45633</v>
+      </c>
+      <c r="C9" s="11">
+        <v>620</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11">
+        <v>1050</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>8000</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>9050</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>9050</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45634</v>
+      </c>
+      <c r="C10" s="11">
+        <v>520</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11">
+        <v>2108</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>2108</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>2108</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45635</v>
+      </c>
+      <c r="C11" s="11">
+        <v>620</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <v>60</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15">
+        <v>2100</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>2160</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45636</v>
+      </c>
+      <c r="C12" s="6">
+        <v>520</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>700</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45637</v>
+      </c>
+      <c r="C13" s="11">
+        <v>620</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45638</v>
+      </c>
+      <c r="C14" s="11">
+        <v>520</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45640</v>
+      </c>
+      <c r="C16" s="6">
+        <v>620</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45641</v>
+      </c>
+      <c r="C17" s="11">
+        <v>620</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
+        <v>100</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45642</v>
+      </c>
+      <c r="C18" s="20">
+        <v>620</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11">
+        <v>250</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45643</v>
+      </c>
+      <c r="C19" s="11">
+        <v>520</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45644</v>
+      </c>
+      <c r="C20" s="11">
+        <v>620</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>300</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45645</v>
+      </c>
+      <c r="C21" s="11">
+        <v>520</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>60</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
+        <v>570</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="28">
+        <v>45646</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45647</v>
+      </c>
+      <c r="C23" s="11">
+        <v>620</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45648</v>
+      </c>
+      <c r="C24" s="11">
+        <v>520</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45649</v>
+      </c>
+      <c r="C25" s="21">
+        <v>620</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45650</v>
+      </c>
+      <c r="C26" s="21">
+        <v>520</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11">
+        <v>420</v>
+      </c>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45651</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45652</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="28">
+        <v>45653</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45654</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45655</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45656</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="32">
+        <v>45657</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -4555,14 +6293,14 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
@@ -4582,11 +6320,11 @@
       </c>
       <c r="I34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="3"/>
@@ -4594,11 +6332,11 @@
       </c>
       <c r="L34" s="24">
         <f t="shared" si="3"/>
-        <v>2370</v>
+        <v>4640</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="3"/>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
@@ -4606,11 +6344,11 @@
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
-        <v>945</v>
+        <v>1675</v>
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
@@ -4618,15 +6356,15 @@
       </c>
       <c r="R34" s="24">
         <f t="shared" si="3"/>
-        <v>2560</v>
+        <v>420</v>
       </c>
       <c r="S34" s="24">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T34" s="24">
         <f t="shared" si="3"/>
-        <v>18213</v>
+        <v>0</v>
       </c>
       <c r="U34" s="24">
         <f t="shared" si="3"/>
@@ -4642,7 +6380,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>51678</v>
+        <v>20873</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -4650,22 +6388,22 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>51678</v>
+        <v>20873</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -4781,35 +6519,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6287,11 +8025,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -6387,10 +8125,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6483,7 +8221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B887B0-782B-44AF-92A4-10D804DCC46A}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -6514,35 +8252,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8030,11 +9768,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -8130,10 +9868,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8258,35 +9996,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9784,11 +11522,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -9884,10 +11622,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9980,7 +11718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6ED03F-B3A1-4778-A2CB-FDFC7313BB9E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -10012,35 +11750,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11521,11 +13259,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -11621,10 +13359,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11750,35 +13488,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13266,11 +15004,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -13366,10 +15104,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13495,35 +15233,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15002,11 +16740,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -15102,10 +16840,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15232,35 +16970,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16729,11 +18467,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -16829,10 +18567,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16959,35 +18697,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18486,11 +20224,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -18586,10 +20324,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B400D5F-19FD-4ACD-863A-6F059719E0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93ABE6-D3CE-4059-B09C-ABB4369056EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Oct-24 (9)" sheetId="10" r:id="rId9"/>
     <sheet name="Nov-24 (10)" sheetId="11" r:id="rId10"/>
     <sheet name="Dec-24 (11)" sheetId="12" r:id="rId11"/>
+    <sheet name="Jan-25 (12)" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="52">
   <si>
     <t>SL</t>
   </si>
@@ -712,6 +713,9 @@
   </si>
   <si>
     <t>MANGROVE COMMUNICATION Dec-2024</t>
+  </si>
+  <si>
+    <t>MANGROVE COMMUNICATION Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -941,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,6 +1048,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,35 +1388,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2871,11 +2878,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -2971,10 +2978,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3100,35 +3107,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4592,11 +4599,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14300</v>
@@ -4692,10 +4699,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4789,7 +4796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554BFE2-02B8-4613-910D-10F783704AC9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -4822,35 +4829,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6293,11 +6300,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -6393,10 +6400,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6483,6 +6490,1715 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DAF92-A46C-4F09-844A-2D3C89322E07}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45658</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11">
+        <v>620</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
+        <v>60</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15">
+        <v>605</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>1285</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>1285</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45659</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11">
+        <v>520</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16">
+        <v>300</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>820</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>820</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45660</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45661</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11">
+        <v>620</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45662</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>520</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <v>700</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11">
+        <v>720</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>1940</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>1940</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45663</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>620</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17">
+        <v>2100</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>2720</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45664</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>520</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45665</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>620</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11">
+        <v>8000</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>8620</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>8620</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45666</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>520</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45667</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45668</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6">
+        <v>620</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45669</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>520</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>60</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>400</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45670</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>620</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
+        <v>910</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>1530</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45671</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>520</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45672</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>620</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45673</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
+        <v>520</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11">
+        <v>1150</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11">
+        <v>70</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>1740</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45674</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45675</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>620</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45676</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>520</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45677</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>620</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>60</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11">
+        <v>70</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45678</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <v>520</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
+        <v>160</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15">
+        <v>40</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45679</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>620</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21">
+        <v>40</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45680</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>520</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45681</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45682</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
+        <v>620</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11">
+        <v>100</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45683</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>520</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11">
+        <v>650</v>
+      </c>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45684</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21">
+        <v>620</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45685</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45686</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45687</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="32">
+        <v>45688</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>13160</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>1370</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>1720</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>605</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>29355</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>29355</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6519,35 +8235,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8025,11 +9741,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -8125,10 +9841,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8252,35 +9968,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9768,11 +11484,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -9868,10 +11584,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9996,35 +11712,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11522,11 +13238,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -11622,10 +13338,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11750,35 +13466,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13259,11 +14975,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -13359,10 +15075,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13488,35 +15204,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15004,11 +16720,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -15104,10 +16820,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15233,35 +16949,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16740,11 +18456,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -16840,10 +18556,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16970,35 +18686,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18467,11 +20183,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -18567,10 +20283,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -18697,35 +20413,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20224,11 +21940,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -20324,10 +22040,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93ABE6-D3CE-4059-B09C-ABB4369056EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7632F-0525-425E-87E5-DCE99F4F398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Nov-24 (10)" sheetId="11" r:id="rId10"/>
     <sheet name="Dec-24 (11)" sheetId="12" r:id="rId11"/>
     <sheet name="Jan-25 (12)" sheetId="13" r:id="rId12"/>
+    <sheet name="Feb-25 (13)" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,6 +110,70 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t>25000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{94236B87-1E6B-4E74-8309-B102E6F8D554}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">605 tk khoroj kora hoisilo ja pore bad deoya hoise
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{2C72E9F7-9D86-4D7B-8623-B196C85706D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">605 tk khoroj kora hoisilo ja pore bad deoya hoise
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{07F1EDA5-D602-4CA6-B86E-84D44EE391DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>salary =24000/
+jan25</t>
         </r>
       </text>
     </comment>
@@ -560,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="54">
   <si>
     <t>SL</t>
   </si>
@@ -716,6 +781,12 @@
   </si>
   <si>
     <t>MANGROVE COMMUNICATION Jan-2025</t>
+  </si>
+  <si>
+    <t>MANGROVE COMMUNICATION Feb-2025</t>
+  </si>
+  <si>
+    <t>Convence</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,6 +1119,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,35 +1462,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2878,11 +2952,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -2978,10 +3052,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3107,35 +3181,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4599,11 +4673,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14300</v>
@@ -4699,10 +4773,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4829,35 +4903,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6300,11 +6374,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -6400,10 +6474,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6494,11 +6568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DAF92-A46C-4F09-844A-2D3C89322E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DAF92-A46C-4F09-844A-2D3C89322E07}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,35 +6604,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6645,7 +6719,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="32">
         <v>45658</v>
@@ -6670,16 +6744,14 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="15">
-        <v>605</v>
-      </c>
+      <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="12"/>
       <c r="X3" s="13">
         <f>SUM(D3,F3:U3)</f>
-        <v>1285</v>
+        <v>680</v>
       </c>
       <c r="Y3" s="14">
         <f>SUM(V3:W3)</f>
@@ -6687,13 +6759,13 @@
       </c>
       <c r="Z3" s="11">
         <f>SUM(X3:Y3)</f>
-        <v>1285</v>
+        <v>680</v>
       </c>
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="32">
         <v>45659</v>
@@ -6738,10 +6810,10 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="A5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="28">
         <v>45660</v>
       </c>
       <c r="C5" s="30"/>
@@ -6766,7 +6838,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="32">
         <v>45661</v>
@@ -6810,7 +6882,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="32">
         <v>45662</v>
@@ -6857,8 +6929,8 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>30</v>
+      <c r="A8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="32">
         <v>45663</v>
@@ -6904,7 +6976,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="32">
         <v>45664</v>
@@ -6948,7 +7020,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="32">
         <v>45665</v>
@@ -6994,7 +7066,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="32">
         <v>45666</v>
@@ -7037,10 +7109,10 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="32">
+      <c r="A12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="28">
         <v>45667</v>
       </c>
       <c r="C12" s="6"/>
@@ -7080,7 +7152,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="32">
         <v>45668</v>
@@ -7124,7 +7196,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="32">
         <v>45669</v>
@@ -7171,8 +7243,8 @@
       <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>30</v>
+      <c r="A15" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="32">
         <v>45670</v>
@@ -7218,7 +7290,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="32">
         <v>45671</v>
@@ -7258,7 +7330,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="32">
         <v>45672</v>
@@ -7302,7 +7374,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="32">
         <v>45673</v>
@@ -7349,10 +7421,10 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="32">
+      <c r="A19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="28">
         <v>45674</v>
       </c>
       <c r="C19" s="11"/>
@@ -7392,7 +7464,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" s="32">
         <v>45675</v>
@@ -7436,7 +7508,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" s="32">
         <v>45676</v>
@@ -7479,8 +7551,8 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>30</v>
+      <c r="A22" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="32">
         <v>45677</v>
@@ -7528,7 +7600,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="32">
         <v>45678</v>
@@ -7576,7 +7648,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" s="32">
         <v>45679</v>
@@ -7622,7 +7694,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="32">
         <v>45680</v>
@@ -7665,10 +7737,10 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="32">
+      <c r="A26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="28">
         <v>45681</v>
       </c>
       <c r="C26" s="21"/>
@@ -7708,7 +7780,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="32">
         <v>45682</v>
@@ -7754,7 +7826,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="32">
         <v>45683</v>
@@ -7773,14 +7845,14 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="O28" s="11">
+        <v>650</v>
+      </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="11">
-        <v>650</v>
-      </c>
+      <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -7799,8 +7871,8 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>30</v>
+      <c r="A29" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="32">
         <v>45684</v>
@@ -7844,10 +7916,1725 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="32">
         <v>45685</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21">
+        <v>520</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
+        <v>60</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45686</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="11">
+        <v>620</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
+        <v>200</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11">
+        <v>100</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45687</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>520</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="28">
+        <v>45688</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11">
+        <v>24000</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>14820</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>1570</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>2470</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>54770</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>54770</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89188B4-2139-4D0B-BDFE-DA6C22019141}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45689</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11">
+        <v>540</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
+        <v>270</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>810</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>810</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45690</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11">
+        <v>480</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
+        <v>700</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
+        <v>695</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>1875</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>1875</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45691</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11">
+        <v>540</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45692</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11">
+        <v>480</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
+        <v>490</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45693</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>540</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11">
+        <v>8000</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>8540</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>8540</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45694</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>480</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>150</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45695</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45696</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>540</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45697</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>480</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11">
+        <v>500</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45698</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>540</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <v>60</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
+        <v>4420</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1650</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>6670</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>6670</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45699</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6">
+        <v>480</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>5500</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>5980</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>5980</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45700</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>540</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45701</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>480</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="28">
+        <v>45702</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45703</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>540</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45704</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
+        <v>480</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11">
+        <v>250</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>730</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45705</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>540</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45706</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>480</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45707</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>540</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>2910</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>3450</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>3450</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45708</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>480</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="28">
+        <v>45709</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45710</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>540</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45711</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>480</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45712</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <v>540</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45713</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
+        <v>480</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45714</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>540</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45715</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21">
+        <v>480</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="28">
+        <v>45716</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -7885,14 +9672,10 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="32">
-        <v>45686</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -7927,12 +9710,8 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="32">
-        <v>45687</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="11"/>
@@ -7969,12 +9748,8 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="32">
-        <v>45688</v>
-      </c>
+      <c r="A33" s="26"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="21"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7986,7 +9761,9 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="N33" s="11">
+        <v>24000</v>
+      </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -7998,7 +9775,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="1"/>
@@ -8006,19 +9783,19 @@
       </c>
       <c r="Z33" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
-        <v>13160</v>
+        <v>12240</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
@@ -8034,7 +9811,7 @@
       </c>
       <c r="H34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="3"/>
@@ -8042,7 +9819,7 @@
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="3"/>
@@ -8050,23 +9827,23 @@
       </c>
       <c r="L34" s="24">
         <f t="shared" si="3"/>
-        <v>1370</v>
+        <v>7330</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
-        <v>1720</v>
+        <v>1660</v>
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
@@ -8074,15 +9851,15 @@
       </c>
       <c r="R34" s="24">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S34" s="24">
         <f t="shared" si="3"/>
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="T34" s="24">
         <f t="shared" si="3"/>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U34" s="24">
         <f t="shared" si="3"/>
@@ -8098,7 +9875,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>29355</v>
+        <v>61835</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -8106,22 +9883,22 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>29355</v>
+        <v>61835</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="41" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -8197,8 +9974,10 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8235,35 +10014,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9741,11 +11520,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -9841,10 +11620,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9968,35 +11747,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11484,11 +13263,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -11584,10 +13363,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11712,35 +13491,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13238,11 +15017,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -13338,10 +15117,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13466,35 +15245,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14975,11 +16754,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -15075,10 +16854,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15204,35 +16983,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16720,11 +18499,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -16820,10 +18599,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16949,35 +18728,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18456,11 +20235,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -18556,10 +20335,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -18686,35 +20465,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20183,11 +21962,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -20283,10 +22062,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -20413,35 +22192,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21940,11 +23719,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -22040,10 +23819,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7632F-0525-425E-87E5-DCE99F4F398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBEF097-2A56-47B1-A38F-368727562A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8294,8 +8294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89188B4-2139-4D0B-BDFE-DA6C22019141}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9386,10 +9386,14 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="11">
+        <v>70</v>
+      </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="21"/>
+      <c r="R24" s="21">
+        <v>330</v>
+      </c>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -9397,7 +9401,7 @@
       <c r="W24" s="21"/>
       <c r="X24" s="13">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>940</v>
       </c>
       <c r="Y24" s="14">
         <f t="shared" si="1"/>
@@ -9405,7 +9409,7 @@
       </c>
       <c r="Z24" s="11">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>940</v>
       </c>
       <c r="AA24" s="11"/>
     </row>
@@ -9601,7 +9605,9 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11">
+        <v>90</v>
+      </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -9617,7 +9623,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="13">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="Y29" s="14">
         <f t="shared" si="1"/>
@@ -9625,7 +9631,7 @@
       </c>
       <c r="Z29" s="11">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="AA29" s="11"/>
     </row>
@@ -9819,7 +9825,7 @@
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="3"/>
@@ -9839,7 +9845,7 @@
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
-        <v>1660</v>
+        <v>1730</v>
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
@@ -9851,7 +9857,7 @@
       </c>
       <c r="R34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="S34" s="24">
         <f t="shared" si="3"/>
@@ -9875,7 +9881,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>61835</v>
+        <v>62325</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -9883,7 +9889,7 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>61835</v>
+        <v>62325</v>
       </c>
       <c r="AA34" s="11"/>
     </row>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBEF097-2A56-47B1-A38F-368727562A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82EF008-1F91-45C9-978F-E91AE2EE9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Dec-24 (11)" sheetId="12" r:id="rId11"/>
     <sheet name="Jan-25 (12)" sheetId="13" r:id="rId12"/>
     <sheet name="Feb-25 (13)" sheetId="14" r:id="rId13"/>
+    <sheet name="March-25 (14)" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -625,7 +626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="55">
   <si>
     <t>SL</t>
   </si>
@@ -787,6 +788,9 @@
   </si>
   <si>
     <t>Convence</t>
+  </si>
+  <si>
+    <t>MANGROVE COMMUNICATION March-2025</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,6 +1123,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,35 +1469,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2952,11 +2959,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -3052,10 +3059,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3181,35 +3188,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4673,11 +4680,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14300</v>
@@ -4773,10 +4780,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4903,35 +4910,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6374,11 +6381,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -6474,10 +6481,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6604,35 +6611,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8097,11 +8104,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -8197,10 +8204,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8294,8 +8301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89188B4-2139-4D0B-BDFE-DA6C22019141}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,35 +8334,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9794,11 +9801,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>12240</v>
@@ -9894,10 +9901,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9984,6 +9991,1619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220CBE2-C47D-4C42-ABED-2BFF732A5EA2}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45717</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45718</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45719</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45720</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45721</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45722</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45723</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45724</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45725</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45726</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45727</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45728</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45729</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45730</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45731</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45732</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45733</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45734</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45735</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45736</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45737</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45738</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45739</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45740</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45741</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45742</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45743</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45744</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10020,35 +11640,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11526,11 +13146,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -11626,10 +13246,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11753,35 +13373,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13269,11 +14889,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -13369,10 +14989,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13497,35 +15117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15023,11 +16643,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -15123,10 +16743,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15251,35 +16871,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16760,11 +18380,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -16860,10 +18480,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16989,35 +18609,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18505,11 +20125,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -18605,10 +20225,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -18734,35 +20354,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20241,11 +21861,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -20341,10 +21961,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -20471,35 +22091,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21968,11 +23588,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -22068,10 +23688,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -22198,35 +23818,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23725,11 +25345,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -23825,10 +25445,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82EF008-1F91-45C9-978F-E91AE2EE9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE738F-71AA-405B-958A-617FDCBEDE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Jan-25 (12)" sheetId="13" r:id="rId12"/>
     <sheet name="Feb-25 (13)" sheetId="14" r:id="rId13"/>
     <sheet name="March-25 (14)" sheetId="15" r:id="rId14"/>
+    <sheet name="April-25 (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,6 +176,45 @@
           </rPr>
           <t>salary =24000/
 jan25</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{AF0EEDBF-80E8-426F-A3B3-0B00FD9C6222}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>salary feb-25 =24000/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P29" authorId="0" shapeId="0" xr:uid="{B696ED50-45DB-422B-9200-C77E5E25EB94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">=954/
+</t>
         </r>
       </text>
     </comment>
@@ -626,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="56">
   <si>
     <t>SL</t>
   </si>
@@ -791,6 +831,9 @@
   </si>
   <si>
     <t>MANGROVE COMMUNICATION March-2025</t>
+  </si>
+  <si>
+    <t>MANGROVE COMMUNICATION April-2025</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,35 +1515,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2959,11 +3005,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -3059,10 +3105,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3188,35 +3234,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4680,11 +4726,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14300</v>
@@ -4780,10 +4826,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4910,35 +4956,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6381,11 +6427,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -6481,10 +6527,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6611,35 +6657,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8104,11 +8150,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -8204,10 +8250,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8301,7 +8347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89188B4-2139-4D0B-BDFE-DA6C22019141}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -8334,35 +8380,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9801,11 +9847,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>12240</v>
@@ -9901,10 +9947,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9995,11 +10041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220CBE2-C47D-4C42-ABED-2BFF732A5EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220CBE2-C47D-4C42-ABED-2BFF732A5EA2}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10031,35 +10077,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10152,13 +10198,17 @@
         <v>45717</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>540</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="15">
+        <v>90</v>
+      </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -10174,7 +10224,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="13">
         <f>SUM(D3,F3:U3)</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="Y3" s="14">
         <f>SUM(V3:W3)</f>
@@ -10182,7 +10232,7 @@
       </c>
       <c r="Z3" s="11">
         <f>SUM(X3:Y3)</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="AA3" s="11"/>
     </row>
@@ -10192,6 +10242,1708 @@
       </c>
       <c r="B4" s="32">
         <v>45718</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11">
+        <v>480</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
+        <v>700</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>1180</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>1180</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45719</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11">
+        <v>540</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45720</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11">
+        <v>480</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45721</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>540</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
+        <v>1650</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>100</v>
+      </c>
+      <c r="P7" s="11">
+        <v>900</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>3190</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>3190</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45722</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>480</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>150</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45723</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45724</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>540</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45725</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>480</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45726</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>540</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11">
+        <v>370</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45727</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6">
+        <v>480</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <v>90</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45728</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>540</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>6710</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>7250</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>7250</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45729</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>480</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19">
+        <v>150</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45730</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45731</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>540</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45732</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
+        <v>480</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45733</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>540</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45734</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>480</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45735</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>540</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45736</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>480</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11">
+        <v>150</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45737</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45738</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>540</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45739</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>480</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45740</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <v>540</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45741</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
+        <v>480</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21">
+        <v>1810</v>
+      </c>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>1810</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>2290</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45742</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>540</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11">
+        <v>3251</v>
+      </c>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>3251</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>3791</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45743</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21">
+        <v>480</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11">
+        <v>230</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21">
+        <v>5268</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>5268</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>5978</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45744</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="11">
+        <v>540</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11">
+        <v>21500</v>
+      </c>
+      <c r="O31" s="11">
+        <v>400</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21">
+        <v>545</v>
+      </c>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>22440</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>22985</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>920</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11">
+        <v>24000</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>13700</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>6710</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>45500</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>1180</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>10874</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>70890</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>10874</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>81764</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD6D945-ADE8-468D-8742-E89DDB8F774B}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45748</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>954</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>954</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>954</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32">
+        <v>45749</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="11"/>
@@ -10230,10 +11982,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="32">
-        <v>45719</v>
+        <v>45750</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="11"/>
@@ -10256,11 +12008,11 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="32">
-        <v>45720</v>
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45751</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="11"/>
@@ -10299,10 +12051,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="32">
-        <v>45721</v>
+        <v>45752</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="11"/>
@@ -10341,10 +12093,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="32">
-        <v>45722</v>
+        <v>45753</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="11"/>
@@ -10382,11 +12134,11 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
+      <c r="A9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="32">
-        <v>45723</v>
+        <v>45754</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -10425,10 +12177,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="32">
-        <v>45724</v>
+        <v>45755</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -10467,10 +12219,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="32">
-        <v>45725</v>
+        <v>45756</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -10509,10 +12261,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="32">
-        <v>45726</v>
+        <v>45757</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -10550,11 +12302,11 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="32">
-        <v>45727</v>
+      <c r="A13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="28">
+        <v>45758</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6"/>
@@ -10593,10 +12345,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="32">
-        <v>45728</v>
+        <v>45759</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -10635,10 +12387,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="32">
-        <v>45729</v>
+        <v>45760</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -10676,11 +12428,11 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>30</v>
+      <c r="A16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="32">
-        <v>45730</v>
+        <v>45761</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -10715,10 +12467,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="32">
-        <v>45731</v>
+        <v>45762</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -10757,10 +12509,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="32">
-        <v>45732</v>
+        <v>45763</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -10799,10 +12551,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="32">
-        <v>45733</v>
+        <v>45764</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -10840,11 +12592,11 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="32">
-        <v>45734</v>
+      <c r="A20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="28">
+        <v>45765</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -10883,10 +12635,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" s="32">
-        <v>45735</v>
+        <v>45766</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -10925,10 +12677,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" s="32">
-        <v>45736</v>
+        <v>45767</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -10966,11 +12718,11 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>30</v>
+      <c r="A23" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B23" s="32">
-        <v>45737</v>
+        <v>45768</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -11009,10 +12761,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="32">
-        <v>45738</v>
+        <v>45769</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -11051,10 +12803,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="32">
-        <v>45739</v>
+        <v>45770</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -11093,10 +12845,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="32">
-        <v>45740</v>
+        <v>45771</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -11134,11 +12886,11 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="32">
-        <v>45741</v>
+      <c r="A27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="28">
+        <v>45772</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -11177,10 +12929,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28" s="32">
-        <v>45742</v>
+        <v>45773</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -11219,10 +12971,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="32">
-        <v>45743</v>
+        <v>45774</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -11260,11 +13012,11 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>30</v>
+      <c r="A30" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B30" s="32">
-        <v>45744</v>
+        <v>45775</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -11378,7 +13130,7 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="32"/>
       <c r="C33" s="21"/>
       <c r="D33" s="11"/>
@@ -11416,11 +13168,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -11471,7 +13223,7 @@
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
@@ -11503,7 +13255,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -11511,22 +13263,22 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -11602,6 +13354,7 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11640,35 +13393,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13146,11 +14899,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -13246,10 +14999,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -13373,35 +15126,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14889,11 +16642,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -14989,10 +16742,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15117,35 +16870,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16643,11 +18396,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -16743,10 +18496,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16871,35 +18624,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18380,11 +20133,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -18480,10 +20233,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -18609,35 +20362,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20125,11 +21878,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -20225,10 +21978,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -20354,35 +22107,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21861,11 +23614,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -21961,10 +23714,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -22091,35 +23844,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23588,11 +25341,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -23688,10 +25441,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -23818,35 +25571,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -25345,11 +27098,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -25445,10 +27198,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE738F-71AA-405B-958A-617FDCBEDE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F5D88-1F17-4682-A66A-7B1076F663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Feb-25 (13)" sheetId="14" r:id="rId13"/>
     <sheet name="March-25 (14)" sheetId="15" r:id="rId14"/>
     <sheet name="April-25 (15)" sheetId="16" r:id="rId15"/>
+    <sheet name="May-25 (16)" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -203,6 +204,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q27" authorId="0" shapeId="0" xr:uid="{BE9E7B63-58ED-4073-8368-28B61EA26463}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">advance =14000/
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P29" authorId="0" shapeId="0" xr:uid="{B696ED50-45DB-422B-9200-C77E5E25EB94}">
       <text>
         <r>
@@ -214,6 +229,43 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">=954/
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shakil Ahmad</author>
+  </authors>
+  <commentList>
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{3759767B-A95E-4BA3-B50D-595324F88933}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>=920/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{845FA902-5564-4C15-850C-42D5CF5CEE32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">march-25 =30000
 </t>
         </r>
       </text>
@@ -666,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="58">
   <si>
     <t>SL</t>
   </si>
@@ -834,6 +886,12 @@
   </si>
   <si>
     <t>MANGROVE COMMUNICATION April-2025</t>
+  </si>
+  <si>
+    <t>MANGROVE COMMUNICATION May-2025</t>
+  </si>
+  <si>
+    <t>servicing</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,6 +1224,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,35 +1576,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3005,11 +3066,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11030</v>
@@ -3105,10 +3166,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3234,35 +3295,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4726,11 +4787,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14300</v>
@@ -4826,10 +4887,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -4923,7 +4984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554BFE2-02B8-4613-910D-10F783704AC9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -4956,35 +5017,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6427,11 +6488,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>0</v>
@@ -6527,10 +6588,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -6624,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DAF92-A46C-4F09-844A-2D3C89322E07}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6657,35 +6718,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8150,11 +8211,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -8250,10 +8311,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -8282,7 +8343,7 @@
         <v>9</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>11</v>
@@ -8347,8 +8408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89188B4-2139-4D0B-BDFE-DA6C22019141}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8380,35 +8441,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9847,11 +9908,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>12240</v>
@@ -9947,10 +10008,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9979,7 +10040,7 @@
         <v>9</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>11</v>
@@ -10044,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220CBE2-C47D-4C42-ABED-2BFF732A5EA2}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10077,35 +10138,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11526,7 +11587,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -11539,7 +11600,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="13">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="1"/>
@@ -11547,16 +11608,16 @@
       </c>
       <c r="Z33" s="11">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13700</v>
@@ -11599,7 +11660,7 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
-        <v>45500</v>
+        <v>51500</v>
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
@@ -11639,7 +11700,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>70890</v>
+        <v>76890</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -11647,15 +11708,15 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>81764</v>
+        <v>87764</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -11684,7 +11745,7 @@
         <v>9</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>11</v>
@@ -11745,11 +11806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD6D945-ADE8-468D-8742-E89DDB8F774B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD6D945-ADE8-468D-8742-E89DDB8F774B}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11781,35 +11842,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12057,7 +12118,1717 @@
         <v>45752</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>1460</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11">
+        <v>1400</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>2860</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="2"/>
+        <v>2860</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45753</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="11">
+        <v>480</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45754</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>540</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>700</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
+        <v>500</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="2"/>
+        <v>1740</v>
+      </c>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45755</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>480</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45756</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>540</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
+        <v>860</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1650</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>3050</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45757</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>480</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11">
+        <v>420</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="28">
+        <v>45758</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45759</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>540</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45760</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>480</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11">
+        <v>320</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45761</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>540</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45762</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>480</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45763</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
+        <v>540</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45764</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>480</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16">
+        <v>150</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="20">
+        <v>320</v>
+      </c>
+      <c r="S19" s="19"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="28">
+        <v>45765</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45766</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>540</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
+        <v>100</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11">
+        <v>180</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45767</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <v>480</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45768</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <v>540</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45769</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>480</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45770</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
+        <v>540</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45771</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <v>480</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="28">
+        <v>45772</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45773</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>540</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45774</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21">
+        <v>480</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45775</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21">
+        <v>540</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45776</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="11">
+        <v>480</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45777</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>540</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
+        <v>6680</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11">
+        <v>170</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="21">
+        <v>75</v>
+      </c>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="13">
+        <f t="shared" si="0"/>
+        <v>7465</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>7465</v>
+      </c>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11">
+        <v>24000</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11">
+        <v>7000</v>
+      </c>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="13">
+        <f t="shared" si="0"/>
+        <v>31000</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>31000</v>
+      </c>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="24">
+        <f>SUM(D3:D33)</f>
+        <v>12680</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>7540</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="3"/>
+        <v>954</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="R34" s="24">
+        <f t="shared" si="3"/>
+        <v>3215</v>
+      </c>
+      <c r="S34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24">
+        <f>SUM(W3:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
+        <v>58159</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="4"/>
+        <v>58159</v>
+      </c>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967AD49-DE70-4E7C-BC16-C64BEA09B498}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="32">
+        <v>45778</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13">
+        <f>SUM(D3,F3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>SUM(V3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUM(X3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45779</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4:X33" si="0">SUM(D4,F4:U4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y33" si="1">SUM(V4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:Z33" si="2">SUM(X4:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45780</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="11">
+        <v>540</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45781</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="11">
+        <v>480</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45782</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="11">
+        <v>540</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -12079,7 +13850,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" si="1"/>
@@ -12087,19 +13858,21 @@
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" s="32">
-        <v>45753</v>
+        <v>45783</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>480</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="17"/>
@@ -12108,7 +13881,9 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="17">
+        <v>1650</v>
+      </c>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -12121,7 +13896,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="Y8" s="14">
         <f t="shared" si="1"/>
@@ -12129,16 +13904,16 @@
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="32">
-        <v>45754</v>
+        <v>45784</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -12177,10 +13952,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="32">
-        <v>45755</v>
+        <v>45785</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -12218,11 +13993,11 @@
       <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="32">
-        <v>45756</v>
+      <c r="A11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45786</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -12261,10 +14036,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="32">
-        <v>45757</v>
+        <v>45787</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -12302,11 +14077,11 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="28">
-        <v>45758</v>
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45788</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6"/>
@@ -12345,10 +14120,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="32">
-        <v>45759</v>
+        <v>45789</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -12387,10 +14162,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="32">
-        <v>45760</v>
+        <v>45790</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -12429,10 +14204,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="32">
-        <v>45761</v>
+        <v>45791</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -12467,10 +14242,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="32">
-        <v>45762</v>
+        <v>45792</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -12508,11 +14283,11 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="32">
-        <v>45763</v>
+      <c r="A18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="28">
+        <v>45793</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -12551,10 +14326,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="32">
-        <v>45764</v>
+        <v>45794</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -12592,11 +14367,11 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="28">
-        <v>45765</v>
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45795</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -12635,10 +14410,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="32">
-        <v>45766</v>
+        <v>45796</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -12677,10 +14452,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="32">
-        <v>45767</v>
+        <v>45797</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -12719,10 +14494,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="32">
-        <v>45768</v>
+        <v>45798</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -12761,10 +14536,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="32">
-        <v>45769</v>
+        <v>45799</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -12802,11 +14577,11 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="32">
-        <v>45770</v>
+      <c r="A25" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="28">
+        <v>45800</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -12845,10 +14620,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="32">
-        <v>45771</v>
+        <v>45801</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -12886,11 +14661,11 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="28">
-        <v>45772</v>
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45802</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -12929,10 +14704,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" s="32">
-        <v>45773</v>
+        <v>45803</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -12971,10 +14746,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" s="32">
-        <v>45774</v>
+        <v>45804</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -13013,10 +14788,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="32">
-        <v>45775</v>
+        <v>45805</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -13054,8 +14829,12 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45806</v>
+      </c>
       <c r="C31" s="23"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -13092,8 +14871,12 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="28">
+        <v>45807</v>
+      </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="11"/>
@@ -13130,8 +14913,12 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="32">
+        <v>45808</v>
+      </c>
       <c r="C33" s="21"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -13168,14 +14955,14 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
@@ -13211,7 +14998,7 @@
       </c>
       <c r="M34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
@@ -13219,11 +15006,11 @@
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
@@ -13255,7 +15042,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>954</v>
+        <v>3990</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -13263,22 +15050,22 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>954</v>
+        <v>3990</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="44" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -13300,7 +15087,7 @@
         <v>9</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>11</v>
@@ -13393,35 +15180,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14899,11 +16686,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>12300</v>
@@ -14999,10 +16786,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -15126,35 +16913,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16642,11 +18429,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>11910</v>
@@ -16742,10 +18529,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -16870,35 +18657,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18396,11 +20183,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f t="shared" ref="D34:V34" si="3">SUM(D3:D33)</f>
         <v>13810</v>
@@ -18496,10 +20283,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -18624,35 +20411,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20133,11 +21920,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13140</v>
@@ -20233,10 +22020,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -20362,35 +22149,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21878,11 +23665,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>15050</v>
@@ -21978,10 +23765,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -22107,35 +23894,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23614,11 +25401,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>13640</v>
@@ -23714,10 +25501,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -23844,35 +25631,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -25341,11 +27128,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14100</v>
@@ -25441,10 +27228,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -25571,35 +27358,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -27098,11 +28885,11 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
         <v>14820</v>
@@ -27198,10 +28985,10 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>

--- a/Daily_Work/Daily Expense.xlsx
+++ b/Daily_Work/Daily Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F5D88-1F17-4682-A66A-7B1076F663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44122D17-7DAD-47D7-A0E3-C775318DD83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -6685,7 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DAF92-A46C-4F09-844A-2D3C89322E07}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -13512,8 +13512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967AD49-DE70-4E7C-BC16-C64BEA09B498}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13916,19 +13916,25 @@
         <v>45784</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>540</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11">
+        <v>700</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11">
+        <v>1030</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -13938,7 +13944,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2270</v>
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="1"/>
@@ -13946,7 +13952,7 @@
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2270</v>
       </c>
       <c r="AA9" s="11"/>
     </row>
@@ -13958,7 +13964,9 @@
         <v>45785</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>480</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -13980,7 +13988,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Y10" s="14">
         <f t="shared" si="1"/>
@@ -13988,7 +13996,7 @@
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AA10" s="11"/>
     </row>
@@ -14042,7 +14050,9 @@
         <v>45787</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>540</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -14064,7 +14074,7 @@
       <c r="W12" s="12"/>
       <c r="X12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Y12" s="14">
         <f t="shared" si="1"/>
@@ -14072,7 +14082,7 @@
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA12" s="11"/>
     </row>
@@ -14084,12 +14094,16 @@
         <v>45788</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>480</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>550</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -14106,7 +14120,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="Y13" s="14">
         <f t="shared" si="1"/>
@@ -14114,7 +14128,7 @@
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="AA13" s="11"/>
     </row>
@@ -14126,13 +14140,17 @@
         <v>45789</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>540</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>120</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -14148,7 +14166,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" si="1"/>
@@ -14156,7 +14174,7 @@
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="AA14" s="11"/>
     </row>
@@ -14168,7 +14186,9 @@
         <v>45790</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>480</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -14190,7 +14210,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Y15" s="14">
         <f t="shared" si="1"/>
@@ -14198,7 +14218,7 @@
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AA15" s="11"/>
     </row>
@@ -14210,7 +14230,9 @@
         <v>45791</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>540</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -14228,7 +14250,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Y16" s="14">
         <f t="shared" si="1"/>
@@ -14236,7 +14258,7 @@
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AA16" s="11"/>
     </row>
@@ -14248,7 +14270,9 @@
         <v>45792</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>480</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -14258,8 +14282,12 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="N17" s="11">
+        <v>5500</v>
+      </c>
+      <c r="O17" s="11">
+        <v>870</v>
+      </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -14270,7 +14298,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="1"/>
@@ -14278,7 +14306,7 @@
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="AA17" s="11"/>
     </row>
@@ -14933,7 +14961,9 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="Q33" s="11">
+        <v>7000</v>
+      </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
@@ -14942,7 +14972,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="1"/>
@@ -14950,7 +14980,7 @@
       </c>
       <c r="Z33" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="AA33" s="11"/>
     </row>
@@ -14962,7 +14992,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="24">
         <f>SUM(D3:D33)</f>
-        <v>2040</v>
+        <v>6120</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" ref="E34:V34" si="3">SUM(E3:E33)</f>
@@ -14982,15 +15012,15 @@
       </c>
       <c r="I34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="3"/>
@@ -15002,19 +15032,19 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="O34" s="24">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>1170</v>
       </c>
       <c r="P34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="Q34" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="R34" s="24">
         <f t="shared" si="3"/>
@@ -15042,7 +15072,7 @@
       </c>
       <c r="X34" s="24">
         <f t="shared" ref="X34:Z34" si="4">SUM(X3:X33)</f>
-        <v>3990</v>
+        <v>23840</v>
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="4"/>
@@ -15050,7 +15080,7 @@
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="4"/>
-        <v>3990</v>
+        <v>23840</v>
       </c>
       <c r="AA34" s="11"/>
     </row>
